--- a/assets/inventarislab2.xlsx
+++ b/assets/inventarislab2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508C09C6-3AB4-4246-B71D-DFFA458F1D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5C1C4D-C7BC-4D08-86B6-FE58EBF1614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A961FF92-1E49-47C3-82BF-AD6E47C0B7A9}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1364,7 @@
         <v>82</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>97</v>
@@ -1429,7 +1429,9 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1447,7 +1449,9 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2400,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93EC4F7-C3A7-4F0E-B314-6259C8EED18C}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
